--- a/hardware/BOM-nixieAccurateClock.xlsx
+++ b/hardware/BOM-nixieAccurateClock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA2ED8F-E75F-4E4B-BEC9-795470856A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B659ED1F-74EA-4E36-8957-6581416F1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nixie Accurate Clock" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="228">
   <si>
     <t>Price</t>
   </si>
@@ -175,27 +175,15 @@
     <t>Battery_Cell</t>
   </si>
   <si>
-    <t>C4, C7, C8, C9, C11, C13, C15</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
-    <t>C5, C10</t>
-  </si>
-  <si>
     <t>10u</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>1n</t>
-  </si>
-  <si>
-    <t>D1, D2, D3</t>
-  </si>
-  <si>
     <t>SM4004</t>
   </si>
   <si>
@@ -208,96 +196,27 @@
     <t>Conn_02x05_Odd_Even</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>15u</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>820u</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5</t>
-  </si>
-  <si>
-    <t>BSP88</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>R3, R11</t>
-  </si>
-  <si>
-    <t>62k</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>27k</t>
   </si>
   <si>
-    <t>R5, R17</t>
-  </si>
-  <si>
-    <t>40m</t>
-  </si>
-  <si>
-    <t>R6, R7, R8, R16, R18, R22, R26, R27, R28, R30</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>R12, R29</t>
-  </si>
-  <si>
     <t>10M</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>220k</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>2.7M</t>
-  </si>
-  <si>
-    <t>R21, R31, R32</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
-    <t>R25</t>
-  </si>
-  <si>
     <t>RV1</t>
   </si>
   <si>
@@ -316,45 +235,21 @@
     <t>U2</t>
   </si>
   <si>
-    <t>pico iCE</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
     <t>LTR-329ALS-01</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
     <t>PX1125T</t>
   </si>
   <si>
-    <t>U5, U6</t>
-  </si>
-  <si>
-    <t>LM51561HPWPR</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
     <t>ADC0820BCWMX</t>
   </si>
   <si>
-    <t>TXB0108PWR</t>
-  </si>
-  <si>
     <t>Device:Battery_Cell</t>
   </si>
   <si>
-    <t>Battery:BatteryHolder_Keystone_103_1x20mm</t>
-  </si>
-  <si>
-    <t>https://www.keyelco.com/userAssets/file/M65p3.pdf</t>
-  </si>
-  <si>
     <t>Device:C_Small</t>
   </si>
   <si>
@@ -367,9 +262,6 @@
     <t>Device:C_Polarized</t>
   </si>
   <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C102K5RACTU</t>
-  </si>
-  <si>
     <t>Diode:SM4004</t>
   </si>
   <si>
@@ -382,12 +274,6 @@
     <t>Connector:Conn_01x02_Pin</t>
   </si>
   <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/201605/ph1-xx-ua-data-sheet.pdf</t>
-  </si>
-  <si>
     <t>Connector:Conn_Coaxial</t>
   </si>
   <si>
@@ -397,54 +283,18 @@
     <t>https://www.mouser.com/datasheet/2/18/1/amphs06501_1-2259276.pdf</t>
   </si>
   <si>
-    <t>Connector_PinSocket_2.54mm:PinSocket_2x05_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/catalogspreads-pdf/PAGE123%20.100%20SFH11%20SERIES%20FEMALE%20HDR%20ST%20RA.pdf</t>
-  </si>
-  <si>
     <t>Device:L</t>
   </si>
   <si>
-    <t>00_lib:IND_VLS6045EX-150M</t>
-  </si>
-  <si>
-    <t>https://product.tdk.com/en/system/files?file=dam/doc/product/inductor/inductor/smd/catalog/inductor_commercial_power_vls6045ex_en.pdf</t>
-  </si>
-  <si>
-    <t>00_lib:IND_MSS1583_COC</t>
-  </si>
-  <si>
-    <t>https://www.coilcraft.com/getmedia/fbfe8ea7-f5d8-4484-859e-2285f427326d/mss1583.pdf</t>
-  </si>
-  <si>
-    <t>00_lib:BSP88</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.infineon.com/dgdl/Infineon-BSP88-DS-v02_02-en.pdf?fileId=db3a30433b47825b013b4b657acf0ca8</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
     <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
   </si>
   <si>
-    <t>https://www.vishay.com/docs/30122/wslp.pdf</t>
-  </si>
-  <si>
     <t>Device:R_Potentiometer</t>
   </si>
   <si>
-    <t>Potentiometer_THT:Potentiometer_Bourns_3266Z_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/3266.pdf</t>
-  </si>
-  <si>
     <t>Switch:SW_DIP_x08</t>
   </si>
   <si>
@@ -460,12 +310,6 @@
     <t>http://ww1.microchip.com/downloads/en/DeviceDoc/MCP23008-MCP23S08-Data-Sheet-20001919F.pdf</t>
   </si>
   <si>
-    <t>00_lib:pico_iCE</t>
-  </si>
-  <si>
-    <t>00_lib:pico iCE</t>
-  </si>
-  <si>
     <t>00_lib:LTR-329ALS-01</t>
   </si>
   <si>
@@ -481,18 +325,6 @@
     <t>https://navspark.mybigcommerce.com/content/PX1125T_DS.pdf</t>
   </si>
   <si>
-    <t>00_lib:LM51561HPWPR</t>
-  </si>
-  <si>
-    <t>00_lib:PWP0014H-IPC_C</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=http%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2FLM5156H</t>
-  </si>
-  <si>
-    <t>00_lib:nixie_daughter_board</t>
-  </si>
-  <si>
     <t>00_lib:IN-14 daughter board</t>
   </si>
   <si>
@@ -505,102 +337,33 @@
     <t>https://www.ti.com/lit/ds/symlink/adc0820-n.pdf</t>
   </si>
   <si>
-    <t>00_lib:TXB0108PWR</t>
-  </si>
-  <si>
-    <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/txb0108.pdf</t>
-  </si>
-  <si>
     <t>CL10A105KA8NNNC</t>
   </si>
   <si>
-    <t>C0603C102K5RAC7867</t>
-  </si>
-  <si>
-    <t>PH1-02-UA</t>
-  </si>
-  <si>
-    <t>SFH11-PBPC-D05-RA-BK</t>
-  </si>
-  <si>
-    <t>VLS6045EX-150M</t>
-  </si>
-  <si>
-    <t>MSS1583-824K</t>
-  </si>
-  <si>
-    <t>RC0603JR-074K7L</t>
-  </si>
-  <si>
-    <t>RMCF0603FT62K0</t>
-  </si>
-  <si>
-    <t>RC0603FR-0727KL</t>
-  </si>
-  <si>
-    <t>WSLP0603R0400FEB</t>
-  </si>
-  <si>
     <t>RC0603JR-07100KL</t>
   </si>
   <si>
-    <t>RC0603JR-07470RL</t>
-  </si>
-  <si>
     <t>RMCF0603FT10M0</t>
   </si>
   <si>
     <t>RC0603FR-071KL</t>
   </si>
   <si>
-    <t>RMCF0603FT220K</t>
-  </si>
-  <si>
-    <t>RC0603JR-072M7L</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-071K5L</t>
-  </si>
-  <si>
     <t>RMCF0603FT1M00</t>
   </si>
   <si>
-    <t>3266Z-1-104LF</t>
-  </si>
-  <si>
     <t>ADC0820BCWMX/NOPB</t>
   </si>
   <si>
-    <t>U7, U8, U9, U10, U11, U12</t>
-  </si>
-  <si>
     <t>KiCad\nixieAccurateClock\nixieAccurateClock.kicad_sch</t>
   </si>
   <si>
-    <t>U14, U15</t>
-  </si>
-  <si>
     <t>Digikey link</t>
   </si>
   <si>
     <t>Mouser link</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/103/36-103-ND/331620</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/103?qs=Q3RoVmURDolsdXuDGYj49g%3D%3D</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/tinyvision-ai-inc/pico-ice/main/Board/Rev3/pico-ice.pdf</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10B104KB8NNWC?qs=EvNa9vf1TdYOAZGBJN%252BGRQ%3D%3D</t>
   </si>
   <si>
@@ -625,96 +388,24 @@
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10A105KA8NNNC?qs=hqM3L16%252BxldY%252BnK4KzDJVg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/kemet/C0603C102K5RAC7867/411081</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/KEMET/C0603C102K5RAC7867?qs=ASQIQ%252BJnMNGuy6cWhiGfpA%3D%3D</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, C6, C14, C16, C17, C18, C19, C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP23008-E/SO </t>
-  </si>
-  <si>
-    <t>LM51561H</t>
-  </si>
-  <si>
-    <t>TXB0108</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/diotec-semiconductor/SM4004/13155357</t>
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/SM4004?qs=OlC7AqGiEDkXkiBPoivHAA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/adam-tech/PH1-02-UA/9830266</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Samtec/TSW-102-07-G-S?qs=iT52DjcXudsNPhlNCDp8vw%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Amphenol-RF/132289?qs=nhkRCwpTkeb9ti20UXE5Cg%3D%3D</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/amphenol-rf/132289/1989875</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/SFH11-PBPC-D05-RA-BK/1990095</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/tdk-corporation/VLS6045EX-150M/5286690</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/TDK/VLS6045EX-150M?qs=oF%2FSscNnLpDh4m%2FVdQ%2FgKQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Coilcraft/MSS1583-824KED?qs=ZYnrCdKdyec3W9zOa1ZiwA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/infineon-technologies/BSP88H6327XTSA1/5959955</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Infineon-Technologies/BSP88H6327XTSA1?qs=LqwxS8kK3AsxJVC%2FVRfDmg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-074K7L?qs=%2F9ZTgpVJnN7SlR9TL5EAvw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-074K7L/726785</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT62K0/1714175</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Panasonic/ERJ-3GEYJ623V?qs=JjxTDIFmKPS6xQUYaPwfBA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0727KL/727100</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0727KL?qs=HhmREhdzqomUcJ5okwKG7g%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-dale/WSLP0603R0400FEB/2695094</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Vishay-Dale/WSLP0603R0400FEB?qs=%2FCIfAsUrYSUeZEuc8AwYZQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-07100KL/726698</t>
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-07100KL?qs=2cAdsCoAWRG9Rhqklpdeqg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-07470RL/726791</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-07470RL?qs=%2F9ZTgpVJnN7OKFv8ihIyYQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT10M0/1761206</t>
   </si>
   <si>
@@ -727,42 +418,12 @@
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-071KL?qs=VU8sRB4EgwApHsk4rF%2F3zg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT220K/1760805</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/RMCF0603FT220K?qs=FESYatJ8odJJvj8gHJIXpQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-072M7L/726736</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-072M7L?qs=IuGqVx9wL0I5aWOMNpADkw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0710KL/726880</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0710KL?qs=grNVn54RoB%252B3GtjbJj3wJQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-071K5L/726864</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-071K5L?qs=VU8sRB4EgwBMt9nc4XGNgA%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/RMCF0603FT1M00?qs=FESYatJ8odJNClY0wUC1cg%3D%3D</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT1M00/1761036</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/bourns-inc/3266Z-1-104LF/3722105</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Bourns/3266Z-1-104LF?qs=%252B8v4bwhISUIlrQ43joPBoQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP23008-E-SO?qs=Sez7gRs8XSWum74ZwQXTLw%3D%3D</t>
   </si>
   <si>
@@ -775,24 +436,12 @@
     <t>https://www.mouser.com/ProductDetail/Lite-On/LTR-329ALS-01?qs=Ml%2FaxAEbwm8eHg8LIDPUrw%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM51561HPWPR/13283334</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LM51561HPWPR?qs=zW32dvEIR3sIsgYNjaIZmQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/texas-instruments/ADC0820BCWMX-NOPB/366281</t>
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/ADC0820BCWMX-NOPB?qs=7X5t%252BdzoRHBt6RLxd4fqnA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/TXB0108PWR/1305699</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TXB0108PWR?qs=oFXvjAmG9EgEUWGWzOVFCA%3D%3D</t>
-  </si>
-  <si>
     <t>352010KJT</t>
   </si>
   <si>
@@ -829,21 +478,9 @@
     <t>RC1206JR-0727KL</t>
   </si>
   <si>
-    <t>ULR2E100MNL1GS</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:CP_Elec_8x10</t>
   </si>
   <si>
-    <t>https://www.nichicon.co.jp/english/series_items/catalog_pdf/e-ulr.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/nichicon/ULR2E100MNL1GS/3664123</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Nichicon/ULR2E100MNL1GS?qs=aoAypCcaRa8pBYU9738QBQ%3D%3D</t>
-  </si>
-  <si>
     <t>219-8MST</t>
   </si>
   <si>
@@ -859,22 +496,226 @@
     <t>https://www.mouser.com/ProductDetail/CTS-Electronic-Components/219-8MST?qs=qNzHFtQhdJ%252B8jOs%2FDCRqeg%3D%3D</t>
   </si>
   <si>
-    <t>R10, R13</t>
-  </si>
-  <si>
-    <t>R1, R2, R14, R15</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J4, J5, J7, J8, J9, J10</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17</t>
+    <t>C4, C5, C6, C7, C8, C9, C10, C11</t>
+  </si>
+  <si>
+    <t>pico iCE (A)</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4, R7</t>
+  </si>
+  <si>
+    <t>R5, R8</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13</t>
+  </si>
+  <si>
+    <t>U4, U5, U6, U7</t>
+  </si>
+  <si>
+    <t>SIB452DK-T1-GE3</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>UUX2G010MNL1GS</t>
+  </si>
+  <si>
+    <t>TSM-102-01-L-SV</t>
+  </si>
+  <si>
+    <t>SSM-120-L-DV-A</t>
+  </si>
+  <si>
+    <t>SSM-105-L-DV</t>
+  </si>
+  <si>
+    <t>M20-7920542R</t>
+  </si>
+  <si>
+    <t>SRR1280-100M</t>
+  </si>
+  <si>
+    <t>RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t>3269X-1-104GLF</t>
+  </si>
+  <si>
+    <t>00_lib:pico_iCE (A)</t>
+  </si>
+  <si>
+    <t>:nixie_daughter_board_1</t>
+  </si>
+  <si>
+    <t>00_lib:SIB452DK-T1-GE3</t>
+  </si>
+  <si>
+    <t>00_lib:TXU0104PWR</t>
+  </si>
+  <si>
+    <t>Battery:BatteryHolder_Keystone_3002_1x2032</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical_SMD_Pin1Left</t>
+  </si>
+  <si>
+    <t>00_lib:pico iCE (A)</t>
+  </si>
+  <si>
+    <t>00_lib:M207920542R</t>
+  </si>
+  <si>
+    <t>00_lib:IND_BOURNS_SRR1280</t>
+  </si>
+  <si>
+    <t>Potentiometer_SMD:Potentiometer_Bourns_3269X_Horizontal</t>
+  </si>
+  <si>
+    <t>00_lib:SON_K-T1-GE3_VIS</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-14_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>https://www.keyelco.com/userAssets/file/M65p9.pdf</t>
+  </si>
+  <si>
+    <t>https://www.nichicon.co.jp/english/series_items/catalog_pdf/e-uux.pdf</t>
+  </si>
+  <si>
+    <t>https://suddendocs.samtec.com/catalog_english/tsm.pdf</t>
+  </si>
+  <si>
+    <t>https://suddendocs.samtec.com/catalog_english/ssm_sm.pdf</t>
+  </si>
+  <si>
+    <t>http://suddendocs.samtec.com/catalog_english/ssm_sm.pdf</t>
+  </si>
+  <si>
+    <t>https://cdn.harwin.com/pdfs/Harwin_Datasheet-INDESS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRR1280.pdf</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/products/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/3269.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/txu0104.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/3002/227444</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nichicon/UUX2G010MNL1GS/3973996</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/TSM-102-01-L-SV/2685520</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/SSM-120-L-DV-A/7861007</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/SSM-105-L-DV/1106226</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/harwin-inc/M20-7920542R/6559290</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/SRR1280-100M/1969992</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0747KL/727253</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/3269X-1-104GLF/2535630</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-siliconix/SIB452DK-T1-GE3/1978814</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/TXU0104PWR/14641439</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/3002?qs=Mn60vILZNNZWJpgHXc3g8Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nichicon/UUX2G010MNL1GS?qs=aoAypCcaRa%2FXm3BGeiMtMQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samtec/TSM-102-01-L-SV?qs=FESYatJ8odJ%252BIhPvKBkuBA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samtec/SSM-120-L-DV-A?qs=rU5fayqh%252BE2VZqLoNez%252BbA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samtec/SSM-105-L-DV?qs=92ilVni64gwpNieSff7mAQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Harwin/M20-7920542R?qs=k41KVqW3ymqj80AqJ%2FxUlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/SRR1280-100M?qs=brMhP%2FMjUfe%2FtbNTKcGHiQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0747KL?qs=gt6vzsuosg3jXzmCiDCCdg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/3269X-1-104GLF?qs=Rk6YzfsJF02hTa5cSpJqSw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Semiconductors/SIB452DK-T1-GE3?qs=IRuQNBqMOckO5FjOMoW3mQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TXU0104PWR?qs=QNEnbhJQKvYcSGbLlthvAQ%3D%3D</t>
+  </si>
+  <si>
+    <t>J4, J5</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C13, C14, C15, C16, C18, C19, C20, C21</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J6, J7, J9, J10</t>
+  </si>
+  <si>
+    <t>J11, J12, J13, J14, J15, J16</t>
+  </si>
+  <si>
+    <t>U8, U9, U11, U12</t>
   </si>
 </sst>
 </file>
@@ -1242,40 +1083,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.68359375" customWidth="1"/>
-    <col min="4" max="4" width="15.20703125" customWidth="1"/>
-    <col min="5" max="5" width="17.68359375" customWidth="1"/>
-    <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.7890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.1015625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>45304.804212962961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>45335.877164351848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1291,20 +1132,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1339,13 +1180,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1359,40 +1200,40 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>103</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.22</v>
+        <v>3002</v>
+      </c>
+      <c r="G10">
+        <v>0.46</v>
       </c>
       <c r="H10" s="1">
         <f>B10*G10</f>
-        <v>1.22</v>
+        <v>0.46</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+      <c r="K10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1400,222 +1241,225 @@
       <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H46" si="0">B11*G11</f>
-        <v>1</v>
+        <f t="shared" ref="H11:H35" si="0">B11*G11</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
       <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.1</v>
+        <v>170</v>
+      </c>
+      <c r="G12">
+        <v>0.69</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>5.52</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.99</v>
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>1.98</v>
+        <v>0.1</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.1</v>
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>0.27</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.27</v>
+        <v>171</v>
+      </c>
+      <c r="G15">
+        <v>0.42</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+      <c r="K15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.1</v>
+        <v>172</v>
+      </c>
+      <c r="G16">
+        <v>6.65</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>13.3</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1623,15 +1467,15 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>132289</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>7.55</v>
       </c>
       <c r="H17" s="1">
@@ -1639,61 +1483,61 @@
         <v>7.55</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.81</v>
+        <v>173</v>
+      </c>
+      <c r="G18">
+        <v>2.59</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>15.54</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>209</v>
+        <v>97</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s">
+        <v>204</v>
       </c>
       <c r="M18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1701,155 +1545,155 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.38</v>
+        <v>174</v>
+      </c>
+      <c r="G19">
+        <v>1.71</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>1.71</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4.07</v>
+        <v>175</v>
+      </c>
+      <c r="G20">
+        <v>1.02</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>4.07</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>127</v>
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.55000000000000004</v>
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="1">
+        <v>103</v>
+      </c>
+      <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1857,15 +1701,15 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="1">
+        <v>102</v>
+      </c>
+      <c r="G23">
         <v>0.1</v>
       </c>
       <c r="H23" s="1">
@@ -1876,136 +1720,136 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="1">
+        <v>105</v>
+      </c>
+      <c r="G24">
         <v>0.1</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="s">
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.74</v>
+        <v>136</v>
+      </c>
+      <c r="G25">
+        <v>0.43</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>1.48</v>
+        <v>0.43</v>
       </c>
       <c r="I25" t="s">
         <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>137</v>
+      </c>
+      <c r="K25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="1">
+        <v>176</v>
+      </c>
+      <c r="G26">
         <v>0.1</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I26" t="s">
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
@@ -2013,116 +1857,116 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27">
-        <v>470</v>
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.1</v>
+        <v>177</v>
+      </c>
+      <c r="G27">
+        <v>3.68</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>3.68</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.1</v>
+        <v>149</v>
+      </c>
+      <c r="G28">
+        <v>0.95</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+      <c r="K28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.1</v>
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>5019</v>
+      </c>
+      <c r="G29">
+        <v>0.33</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>4.29</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
@@ -2130,38 +1974,35 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.1</v>
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>1.37</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1.37</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" t="s">
         <v>131</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>22</v>
       </c>
@@ -2169,155 +2010,143 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.1</v>
+        <v>68</v>
+      </c>
+      <c r="G31">
+        <v>0.97</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+      <c r="K31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.1</v>
+        <v>69</v>
+      </c>
+      <c r="G32">
+        <v>27.8</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>27.8</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>177</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.1</v>
+        <v>168</v>
+      </c>
+      <c r="G33">
+        <v>0.76</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>3.04</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>188</v>
+      </c>
+      <c r="K33" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.1</v>
+        <v>157</v>
+      </c>
+      <c r="G34">
+        <v>0.83</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>3.32</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+      <c r="K34" t="s">
+        <v>199</v>
+      </c>
+      <c r="L34" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26</v>
       </c>
@@ -2325,560 +2154,44 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.43</v>
+        <v>106</v>
+      </c>
+      <c r="G35">
+        <v>5.93</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>5.93</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="0"/>
-        <v>2.13</v>
-      </c>
-      <c r="I36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" t="s">
         <v>134</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M35" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>28</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="I37" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" t="s">
-        <v>271</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>29</v>
-      </c>
-      <c r="B38">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38">
-        <v>5019</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>5.61</v>
-      </c>
-      <c r="I38" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>30</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1.37</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>1.37</v>
-      </c>
-      <c r="I39" t="s">
-        <v>139</v>
-      </c>
-      <c r="J39" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>31</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="1">
-        <v>35</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="I40" t="s">
-        <v>142</v>
-      </c>
-      <c r="J40" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L40" t="s">
-        <v>192</v>
-      </c>
-      <c r="M40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>32</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="I41" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" t="s">
-        <v>145</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>33</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="0"/>
-        <v>27.8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" t="s">
-        <v>147</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L42" t="s">
-        <v>192</v>
-      </c>
-      <c r="M42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>34</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="I43" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" t="s">
-        <v>150</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>35</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" s="1">
-        <f>'IN-14 daughter board'!H15</f>
-        <v>21.300000000000004</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="0"/>
-        <v>127.80000000000003</v>
-      </c>
-      <c r="I44" t="s">
-        <v>152</v>
-      </c>
-      <c r="J44" t="s">
-        <v>153</v>
-      </c>
-      <c r="L44" t="s">
-        <v>192</v>
-      </c>
-      <c r="M44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>36</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="1">
-        <v>5.93</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="0"/>
-        <v>5.93</v>
-      </c>
-      <c r="I45" t="s">
-        <v>154</v>
-      </c>
-      <c r="J45" t="s">
-        <v>155</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>37</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>157</v>
-      </c>
-      <c r="J46" t="s">
-        <v>158</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H47" s="1">
-        <f>SUM(H10:H46)</f>
-        <v>242.30000000000007</v>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f>SUM(G10:G35)</f>
+        <v>65.11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{52055F7B-F867-4C06-B49F-E98FE177A9C3}"/>
-    <hyperlink ref="L10" r:id="rId2" xr:uid="{32DD860B-0D25-41A8-B45F-620BF571B7EF}"/>
-    <hyperlink ref="K10" r:id="rId3" xr:uid="{A884858E-62CD-4FB2-97B4-48AA96853709}"/>
-    <hyperlink ref="K11" r:id="rId4" xr:uid="{30849B63-5DFB-4FF8-AA90-EDBCB7F355C6}"/>
-    <hyperlink ref="K12" r:id="rId5" xr:uid="{911163BE-E3A2-4862-840B-AF5B40D67757}"/>
-    <hyperlink ref="K13" r:id="rId6" xr:uid="{8DB281CC-6A41-494A-9B6E-E4A9BED5E754}"/>
-    <hyperlink ref="K14" r:id="rId7" xr:uid="{65C6540D-30FC-4B4F-A22F-8670B7194291}"/>
-    <hyperlink ref="K15" r:id="rId8" xr:uid="{E6679EDE-D675-4BAD-BD11-BC50E2846C59}"/>
-    <hyperlink ref="K16" r:id="rId9" xr:uid="{32250F5F-EA82-4439-9D79-428F71D373D6}"/>
-    <hyperlink ref="K17" r:id="rId10" xr:uid="{12905229-3462-4690-A451-155B4DDCD07C}"/>
-    <hyperlink ref="K18" r:id="rId11" xr:uid="{CBC3112E-2810-4196-9C9E-E215A1DDB6CB}"/>
-    <hyperlink ref="K19" r:id="rId12" xr:uid="{853FF62B-071E-49B8-A71A-C2E36B7BC118}"/>
-    <hyperlink ref="K20" r:id="rId13" xr:uid="{5FF8CDF0-D709-4A80-B203-E92720EEB9C6}"/>
-    <hyperlink ref="K21" r:id="rId14" xr:uid="{FDFFE93C-18E8-49DC-9BCA-C720971A63BB}"/>
-    <hyperlink ref="K22" r:id="rId15" xr:uid="{2E46C509-30C2-429C-B4D4-5FD176C575EF}"/>
-    <hyperlink ref="K23" r:id="rId16" xr:uid="{662E41B8-9C37-4ACA-9776-A1D735AD9249}"/>
-    <hyperlink ref="K24" r:id="rId17" xr:uid="{BF01B485-838E-4770-8E0A-47B504B81659}"/>
-    <hyperlink ref="K25" r:id="rId18" xr:uid="{71A369AB-FDD7-474B-9DE6-DD8923AD618C}"/>
-    <hyperlink ref="K26" r:id="rId19" xr:uid="{69D1FD46-15EC-4B79-AC14-668CDF01FE75}"/>
-    <hyperlink ref="K27" r:id="rId20" xr:uid="{3C0ABA83-8FD1-4DD6-9F08-8CB8836D77A8}"/>
-    <hyperlink ref="K28" r:id="rId21" xr:uid="{992064C8-311C-434E-957B-0C7E337431BC}"/>
-    <hyperlink ref="K29" r:id="rId22" xr:uid="{22373AB4-4588-4402-AA30-B349F9C5DDB9}"/>
-    <hyperlink ref="K30" r:id="rId23" xr:uid="{95485FC1-5F10-416F-9396-E6976A6EDC8F}"/>
-    <hyperlink ref="K31" r:id="rId24" xr:uid="{E4292354-502B-45F9-A304-251A04459BAE}"/>
-    <hyperlink ref="K32" r:id="rId25" xr:uid="{72F7D182-18D9-4E1B-AD94-395E3A2EB9D6}"/>
-    <hyperlink ref="K33" r:id="rId26" xr:uid="{89A9946B-7402-4B4F-90FC-10C4EB8D086F}"/>
-    <hyperlink ref="K34" r:id="rId27" xr:uid="{6857AE40-8AAC-4A02-87B6-9C978FFC9A14}"/>
-    <hyperlink ref="K35" r:id="rId28" xr:uid="{C8623058-F388-45EE-8A3C-9C093E357158}"/>
-    <hyperlink ref="K36" r:id="rId29" xr:uid="{1D0A4DC5-DD54-4498-A450-CDB0A0557A5B}"/>
-    <hyperlink ref="K37" r:id="rId30" xr:uid="{00B78B5F-B3DA-4DA7-9A6F-9A2C08971A33}"/>
-    <hyperlink ref="K38" r:id="rId31" xr:uid="{87B07FC1-3ADF-41FF-8422-0B4C76305ED0}"/>
-    <hyperlink ref="K39" r:id="rId32" xr:uid="{891CC337-7E72-4AE9-BA38-E39C03AA8F84}"/>
-    <hyperlink ref="K40" r:id="rId33" xr:uid="{858E6891-0EB8-4BDF-98E6-14A58CF9D7CC}"/>
-    <hyperlink ref="K41" r:id="rId34" xr:uid="{87BCA307-5903-4EF9-A476-F7984D47868D}"/>
-    <hyperlink ref="K42" r:id="rId35" xr:uid="{00FE798E-B61C-4545-9C03-6BB05718EB6B}"/>
-    <hyperlink ref="K43" r:id="rId36" xr:uid="{7318651F-2E72-47E4-9D1E-65C045076DCD}"/>
-    <hyperlink ref="K45" r:id="rId37" xr:uid="{1CFFC5B3-FEFD-447F-A7B1-8339B60B7DB2}"/>
-    <hyperlink ref="K46" r:id="rId38" xr:uid="{2FE8A273-16B0-4541-B858-134D502F2E3F}"/>
-    <hyperlink ref="L11" r:id="rId39" xr:uid="{83F2DAAF-C74D-4630-93FA-AFC302A76EC4}"/>
-    <hyperlink ref="M11" r:id="rId40" xr:uid="{C3F1EC53-F252-4745-B0F4-D31F86A64BED}"/>
-    <hyperlink ref="L12" r:id="rId41" xr:uid="{D0AD0607-2B65-4DF3-A916-BC9874879803}"/>
-    <hyperlink ref="M12" r:id="rId42" xr:uid="{521A1603-826D-45C5-804F-205559DAEFFA}"/>
-    <hyperlink ref="M13" r:id="rId43" xr:uid="{D2613EEB-1094-48C5-BC35-6DF5E70C0F2E}"/>
-    <hyperlink ref="L13" r:id="rId44" xr:uid="{8C835789-FE01-497F-BAD0-6BF0CCFF2B0D}"/>
-    <hyperlink ref="L14" r:id="rId45" xr:uid="{DBF789C8-6D37-4E09-B19C-95A5EB62A19C}"/>
-    <hyperlink ref="M14" r:id="rId46" xr:uid="{CDF4E1AF-51C3-4662-84D5-478696594EF5}"/>
-    <hyperlink ref="L15" r:id="rId47" xr:uid="{24AB3A9D-CA30-4143-B907-B09D66E9AF63}"/>
-    <hyperlink ref="M15" r:id="rId48" xr:uid="{BEFC379F-047F-4FFB-A431-85F606CFA79A}"/>
-    <hyperlink ref="L16" r:id="rId49" xr:uid="{00DC7A75-D443-4E11-9D8B-3C284F771698}"/>
-    <hyperlink ref="M16" r:id="rId50" xr:uid="{59D92369-C1D6-4173-9519-B2E608333258}"/>
-    <hyperlink ref="M17" r:id="rId51" xr:uid="{E1819364-982B-4C1A-9333-0CFFA3A4532B}"/>
-    <hyperlink ref="L17" r:id="rId52" xr:uid="{28A44ACA-9680-4B4A-A176-7BF48D854C09}"/>
-    <hyperlink ref="L18" r:id="rId53" xr:uid="{A7E09E09-DFB8-4492-BE45-E432B23528C2}"/>
-    <hyperlink ref="L19" r:id="rId54" xr:uid="{C42F5A03-330C-4365-BC20-4F87ED2AA0DC}"/>
-    <hyperlink ref="M19" r:id="rId55" xr:uid="{8CD6C0BE-1BC1-42F7-96F2-2961A615899B}"/>
-    <hyperlink ref="M20" r:id="rId56" xr:uid="{9F324829-3A4B-4DE0-A177-EDAE21E4EE58}"/>
-    <hyperlink ref="L21" r:id="rId57" xr:uid="{C848878F-F85B-4061-AC40-93017B6EA7A1}"/>
-    <hyperlink ref="M21" r:id="rId58" xr:uid="{4326B2A4-88D6-45B6-9300-FFCC0C9AA16E}"/>
-    <hyperlink ref="M22" r:id="rId59" xr:uid="{BB9792AD-1FF1-4F84-B698-6C1271FA525A}"/>
-    <hyperlink ref="L22" r:id="rId60" xr:uid="{64B4030E-800F-4220-BFE6-6A0B8E54754F}"/>
-    <hyperlink ref="L23" r:id="rId61" xr:uid="{FBF113F1-DDB9-43E5-B31C-9E02818DD53C}"/>
-    <hyperlink ref="M23" r:id="rId62" xr:uid="{9E3FD796-6AE1-411E-B485-FDA7EF288EF8}"/>
-    <hyperlink ref="L24" r:id="rId63" xr:uid="{FAE2F2C9-2AD0-4D08-9265-5F2D4E5FBDF8}"/>
-    <hyperlink ref="M24" r:id="rId64" xr:uid="{54BBB950-8155-4D84-9F76-A833915F2130}"/>
-    <hyperlink ref="L25" r:id="rId65" xr:uid="{55C29A11-1A63-4B6D-9977-C5DADC240A11}"/>
-    <hyperlink ref="M25" r:id="rId66" xr:uid="{4EF36E81-B44B-4B23-802F-AC99261D86F8}"/>
-    <hyperlink ref="L26" r:id="rId67" xr:uid="{A184DE7D-A101-454C-A450-EA68B6BC2755}"/>
-    <hyperlink ref="M26" r:id="rId68" xr:uid="{E6B3A5EF-13AD-4F02-9494-7C6755B1C9E8}"/>
-    <hyperlink ref="L27" r:id="rId69" xr:uid="{09857FD7-E828-4B72-8467-973FC7527E5D}"/>
-    <hyperlink ref="M27" r:id="rId70" xr:uid="{51C19C22-0E2F-43A1-90BE-1080917E2CC2}"/>
-    <hyperlink ref="L28" r:id="rId71" xr:uid="{201CAFCB-5B50-43D0-A15C-C3AD2E29FB3B}"/>
-    <hyperlink ref="M28" r:id="rId72" xr:uid="{F125B816-670C-4692-B04B-238104B4F0C9}"/>
-    <hyperlink ref="L29" r:id="rId73" xr:uid="{C4F879A0-0CA3-48E7-9802-DA1F674F7E30}"/>
-    <hyperlink ref="M29" r:id="rId74" xr:uid="{318A231B-8619-4449-A194-731C325A2339}"/>
-    <hyperlink ref="L30" r:id="rId75" xr:uid="{6BA9DF11-C5CC-41C1-A964-D6D8FD5236B9}"/>
-    <hyperlink ref="M30" r:id="rId76" xr:uid="{60EAF62B-6C43-460C-9F47-C2E6A5D1DCDF}"/>
-    <hyperlink ref="L31" r:id="rId77" xr:uid="{35570DBF-4F26-4190-B0D1-B45DF37132EC}"/>
-    <hyperlink ref="M31" r:id="rId78" xr:uid="{CE2D46AC-22F0-43B3-BAA4-95FA1F8BC038}"/>
-    <hyperlink ref="L32" r:id="rId79" xr:uid="{1E0A36F1-1DAE-4DBE-80CF-9264CC018C94}"/>
-    <hyperlink ref="M32" r:id="rId80" xr:uid="{56C3A163-6E0C-4A49-80FF-9DBC61C4B068}"/>
-    <hyperlink ref="L33" r:id="rId81" xr:uid="{68CF98D2-968C-4883-9363-0E34B28CD634}"/>
-    <hyperlink ref="M33" r:id="rId82" xr:uid="{2890F52C-EDDF-4FEC-B86C-036D5A079D0A}"/>
-    <hyperlink ref="M34" r:id="rId83" xr:uid="{C5DAD6FC-2173-407B-969E-3A6703606A2D}"/>
-    <hyperlink ref="L34" r:id="rId84" xr:uid="{75F3F402-9A9F-427F-840E-87A8596C6BB4}"/>
-    <hyperlink ref="M35" r:id="rId85" xr:uid="{38034CEF-1506-47E7-88B9-CAA5EA5B4D30}"/>
-    <hyperlink ref="L35" r:id="rId86" xr:uid="{8447B582-33EA-458F-845C-FBED7F28398A}"/>
-    <hyperlink ref="L36" r:id="rId87" xr:uid="{1CE4A09E-54A0-48F3-A4A6-B8B36372A401}"/>
-    <hyperlink ref="M36" r:id="rId88" xr:uid="{B5E31113-CFB8-47B7-9283-5C11ACE7F80E}"/>
-    <hyperlink ref="L37" r:id="rId89" xr:uid="{305D48E9-7441-4BD0-BBD1-778DF4A09E76}"/>
-    <hyperlink ref="M37" r:id="rId90" xr:uid="{14A7D466-3A55-4A91-A924-0441EECBF7CB}"/>
-    <hyperlink ref="L38" r:id="rId91" xr:uid="{F21ED791-8118-4F25-8482-20FC746B7231}"/>
-    <hyperlink ref="M38" r:id="rId92" xr:uid="{F0C63DCE-BB0D-455A-84B6-F6C392C1C2ED}"/>
-    <hyperlink ref="M39" r:id="rId93" xr:uid="{37D3D4E7-C5B1-4EB5-A22F-F501A2DDD3E9}"/>
-    <hyperlink ref="L39" r:id="rId94" xr:uid="{FE3593FC-944C-461A-AF86-1BC0489D9533}"/>
-    <hyperlink ref="L41" r:id="rId95" xr:uid="{1EFB9DFB-F269-4E6A-AA6F-3ABDE73DA1F2}"/>
-    <hyperlink ref="M41" r:id="rId96" xr:uid="{BF3E224F-EFBE-423E-B6C4-A0D1E48692CE}"/>
-    <hyperlink ref="L43" r:id="rId97" xr:uid="{5FCA3BDF-C520-41B1-A611-F8B0AF04D8FA}"/>
-    <hyperlink ref="M43" r:id="rId98" xr:uid="{CEB24B22-9C2F-4E5F-B87F-F8DD7A6A5BDB}"/>
-    <hyperlink ref="L45" r:id="rId99" xr:uid="{FD5B6AAA-18DB-4306-9CB2-CE94103D8BF6}"/>
-    <hyperlink ref="M45" r:id="rId100" xr:uid="{FE957091-1FF0-4A4A-9F69-FA81A1EC2F97}"/>
-    <hyperlink ref="L46" r:id="rId101" xr:uid="{83027471-B331-4E97-80CD-218D31A8FE24}"/>
-    <hyperlink ref="M46" r:id="rId102" xr:uid="{B6F2C751-1BB6-49D4-9EBA-432325A058D3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2889,18 +2202,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.68359375" customWidth="1"/>
-    <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.7890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.1015625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2916,7 +2229,7 @@
         <v>45304.738252314812</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2940,12 +2253,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2980,13 +2293,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3019,13 +2332,13 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3055,13 +2368,13 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3091,13 +2404,13 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3108,10 +2421,10 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -3130,13 +2443,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -3166,13 +2479,13 @@
         <v>41</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="1">
         <f>SUM(H10:H14)</f>
         <v>21.300000000000004</v>

--- a/hardware/BOM-nixieAccurateClock.xlsx
+++ b/hardware/BOM-nixieAccurateClock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B659ED1F-74EA-4E36-8957-6581416F1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D42A1-4574-4800-A404-6C4D7E983EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="238">
   <si>
     <t>Price</t>
   </si>
@@ -181,9 +181,6 @@
     <t>10u</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>SM4004</t>
   </si>
   <si>
@@ -193,18 +190,12 @@
     <t>Conn_Coaxial</t>
   </si>
   <si>
-    <t>Conn_02x05_Odd_Even</t>
-  </si>
-  <si>
     <t>27k</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>10M</t>
   </si>
   <si>
@@ -496,9 +487,6 @@
     <t>https://www.mouser.com/ProductDetail/CTS-Electronic-Components/219-8MST?qs=qNzHFtQhdJ%252B8jOs%2FDCRqeg%3D%3D</t>
   </si>
   <si>
-    <t>C4, C5, C6, C7, C8, C9, C10, C11</t>
-  </si>
-  <si>
     <t>pico iCE (A)</t>
   </si>
   <si>
@@ -508,42 +496,15 @@
     <t>~</t>
   </si>
   <si>
-    <t>J17</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>R4, R7</t>
-  </si>
-  <si>
-    <t>R5, R8</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>47k</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13</t>
-  </si>
-  <si>
-    <t>U4, U5, U6, U7</t>
-  </si>
-  <si>
-    <t>SIB452DK-T1-GE3</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
     <t>UUX2G010MNL1GS</t>
   </si>
   <si>
@@ -556,9 +517,6 @@
     <t>SSM-105-L-DV</t>
   </si>
   <si>
-    <t>M20-7920542R</t>
-  </si>
-  <si>
     <t>SRR1280-100M</t>
   </si>
   <si>
@@ -574,9 +532,6 @@
     <t>:nixie_daughter_board_1</t>
   </si>
   <si>
-    <t>00_lib:SIB452DK-T1-GE3</t>
-  </si>
-  <si>
     <t>00_lib:TXU0104PWR</t>
   </si>
   <si>
@@ -589,18 +544,12 @@
     <t>00_lib:pico iCE (A)</t>
   </si>
   <si>
-    <t>00_lib:M207920542R</t>
-  </si>
-  <si>
     <t>00_lib:IND_BOURNS_SRR1280</t>
   </si>
   <si>
     <t>Potentiometer_SMD:Potentiometer_Bourns_3269X_Horizontal</t>
   </si>
   <si>
-    <t>00_lib:SON_K-T1-GE3_VIS</t>
-  </si>
-  <si>
     <t>Package_SO:TSSOP-14_4.4x5mm_P0.65mm</t>
   </si>
   <si>
@@ -619,9 +568,6 @@
     <t>http://suddendocs.samtec.com/catalog_english/ssm_sm.pdf</t>
   </si>
   <si>
-    <t>https://cdn.harwin.com/pdfs/Harwin_Datasheet-INDESS.pdf</t>
-  </si>
-  <si>
     <t>https://www.bourns.com/docs/Product-Datasheets/SRR1280.pdf</t>
   </si>
   <si>
@@ -649,9 +595,6 @@
     <t>https://www.digikey.com/en/products/detail/samtec-inc/SSM-105-L-DV/1106226</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/harwin-inc/M20-7920542R/6559290</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/bourns-inc/SRR1280-100M/1969992</t>
   </si>
   <si>
@@ -661,9 +604,6 @@
     <t>https://www.digikey.com/en/products/detail/bourns-inc/3269X-1-104GLF/2535630</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-siliconix/SIB452DK-T1-GE3/1978814</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/texas-instruments/TXU0104PWR/14641439</t>
   </si>
   <si>
@@ -682,9 +622,6 @@
     <t>https://www.mouser.com/ProductDetail/Samtec/SSM-105-L-DV?qs=92ilVni64gwpNieSff7mAQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Harwin/M20-7920542R?qs=k41KVqW3ymqj80AqJ%2FxUlA%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Bourns/SRR1280-100M?qs=brMhP%2FMjUfe%2FtbNTKcGHiQ%3D%3D</t>
   </si>
   <si>
@@ -694,28 +631,121 @@
     <t>https://www.mouser.com/ProductDetail/Bourns/3269X-1-104GLF?qs=Rk6YzfsJF02hTa5cSpJqSw%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Vishay-Semiconductors/SIB452DK-T1-GE3?qs=IRuQNBqMOckO5FjOMoW3mQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TXU0104PWR?qs=QNEnbhJQKvYcSGbLlthvAQ%3D%3D</t>
   </si>
   <si>
     <t>J4, J5</t>
   </si>
   <si>
-    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, C13, C14, C15, C16, C18, C19, C20, C21</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J6, J7, J9, J10</t>
-  </si>
-  <si>
-    <t>J11, J12, J13, J14, J15, J16</t>
-  </si>
-  <si>
-    <t>U8, U9, U11, U12</t>
+    <t>C1, C2, C3, C11, C13, C15, C17</t>
+  </si>
+  <si>
+    <t>C4, C5, C6, C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>1SMB5956B-13</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6</t>
+  </si>
+  <si>
+    <t>PZTA42</t>
+  </si>
+  <si>
+    <t>R4, R11</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8</t>
+  </si>
+  <si>
+    <t>R9, R12</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Device:D_Zener</t>
+  </si>
+  <si>
+    <t>:Conn_01x02_Pin_1</t>
+  </si>
+  <si>
+    <t>Transistor_BJT:PZTA42</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMB</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/ds32125.pdf</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/PZTA42T1-D.PDF</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2010_5025Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-csr_csrn.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/1SMB5956B-13/5054209</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/micro-commercial-co/PZTA42-TP/10054674</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CSRN2010FKR500/1742702</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diodes-Incorporated/1SMB5956B-13?qs=uwKJARvjadOTUcHkJGZGig%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/PZTA42?qs=OlC7AqGiEDlNqlN7791aVQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CSRN2010FKR500?qs=FESYatJ8odLqZqv0DvLABQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C9, C10, C12, C14, C16</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D5, D6</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J9, J10</t>
+  </si>
+  <si>
+    <t>J6, J7</t>
+  </si>
+  <si>
+    <t>J11, J12, J13, J14, J15, J16, J17</t>
+  </si>
+  <si>
+    <t>CSRN2010FKR500</t>
+  </si>
+  <si>
+    <t>U4, U5, U7, U8</t>
   </si>
 </sst>
 </file>
@@ -1083,13 +1113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="89.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
@@ -1105,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1113,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>45335.877164351848</v>
+        <v>45345.906342592592</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1137,7 +1167,8 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <f>SUM(B10:B38)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1180,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1202,7 +1233,7 @@
       <c r="E10">
         <v>3002</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.46</v>
       </c>
       <c r="H10" s="1">
@@ -1210,19 +1241,19 @@
         <v>0.46</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" t="s">
         <v>182</v>
       </c>
-      <c r="K10" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" t="s">
-        <v>200</v>
-      </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1230,10 +1261,10 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1241,15 +1272,15 @@
       <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H35" si="0">B11*G11</f>
-        <v>1.2000000000000002</v>
+        <f t="shared" ref="H11:H38" si="0">B11*G11</f>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1258,10 +1289,10 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1269,38 +1300,38 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12">
+        <v>157</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.69</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>5.52</v>
+        <v>2.76</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1311,15 +1342,15 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.1</v>
       </c>
       <c r="H13" s="1">
@@ -1327,19 +1358,19 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1347,38 +1378,38 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>0.27</v>
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>2.4300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1386,38 +1417,38 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15">
-        <v>0.42</v>
+        <v>49</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.27</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>2.94</v>
+        <v>1.35</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1425,38 +1456,35 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16">
-        <v>6.65</v>
+        <v>205</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.46</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>13.3</v>
+        <v>0.46</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="K16" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="L16" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M16" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1464,38 +1492,38 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17">
-        <v>132289</v>
-      </c>
-      <c r="G17">
-        <v>7.55</v>
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.42</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>7.55</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1503,38 +1531,38 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18">
-        <v>2.59</v>
+        <v>159</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.65</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>15.54</v>
+        <v>13.3</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="s">
         <v>194</v>
-      </c>
-      <c r="L18" t="s">
-        <v>204</v>
-      </c>
-      <c r="M18" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1542,38 +1570,38 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
         <v>158</v>
       </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19">
-        <v>1.71</v>
+      <c r="G19" s="1">
+        <v>0.42</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>1.71</v>
+        <v>0.84</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1581,38 +1609,38 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20">
-        <v>1.02</v>
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>132289</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.55</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>2.04</v>
+        <v>7.55</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="M20" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1620,38 +1648,38 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
         <v>160</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
+      <c r="G21" s="1">
+        <v>2.59</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>18.13</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1662,35 +1690,35 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
         <v>161</v>
       </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22">
-        <v>0.1</v>
+      <c r="G22" s="1">
+        <v>1.02</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1698,38 +1726,35 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
+        <v>208</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.41</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>2.46</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1740,15 +1765,15 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1">
         <v>0.1</v>
       </c>
       <c r="H24" s="1">
@@ -1759,16 +1784,16 @@
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1779,35 +1804,35 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25">
-        <v>0.43</v>
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.1</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="s">
         <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M25" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1815,38 +1840,38 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="G26" s="1">
         <v>0.1</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="s">
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1854,38 +1879,38 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
+        <v>210</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27">
-        <v>3.68</v>
+        <v>236</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.42</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>3.68</v>
+        <v>1.68</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1893,38 +1918,38 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28">
-        <v>0.95</v>
+        <v>102</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.1</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1932,38 +1957,38 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29">
-        <v>5019</v>
-      </c>
-      <c r="G29">
-        <v>0.33</v>
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.43</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1974,32 +1999,35 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30">
-        <v>1.37</v>
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>1.37</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2010,32 +2038,35 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31">
-        <v>0.97</v>
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.68</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>0.97</v>
+        <v>3.68</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2046,32 +2077,35 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32">
-        <v>27.8</v>
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.95</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>27.8</v>
+        <v>0.95</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="M32" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2079,35 +2113,38 @@
         <v>24</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33">
-        <v>0.76</v>
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>5019</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.33</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2115,35 +2152,35 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34">
-        <v>0.83</v>
+        <v>62</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.37</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>3.32</v>
+        <v>1.37</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="M34" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2154,41 +2191,149 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35">
-        <v>5.93</v>
+        <v>65</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.97</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>27.8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>3.32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="1">
         <v>5.93</v>
       </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" t="s">
-        <v>134</v>
-      </c>
-      <c r="M35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G36">
-        <f>SUM(G10:G35)</f>
-        <v>65.11</v>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>5.93</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
+        <f>SUM(H10:H38)</f>
+        <v>101.63</v>
       </c>
     </row>
   </sheetData>
@@ -2293,10 +2438,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2332,10 +2477,10 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2368,10 +2513,10 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2404,10 +2549,10 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2421,10 +2566,10 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -2443,10 +2588,10 @@
         <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2479,10 +2624,10 @@
         <v>41</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">

--- a/hardware/BOM-nixieAccurateClock.xlsx
+++ b/hardware/BOM-nixieAccurateClock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D42A1-4574-4800-A404-6C4D7E983EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4405D058-08E6-4482-83E6-9B40CC1EEDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>

--- a/hardware/BOM-nixieAccurateClock.xlsx
+++ b/hardware/BOM-nixieAccurateClock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4405D058-08E6-4482-83E6-9B40CC1EEDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0998F6-6701-41D3-8B29-8C637CF3F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8448" yWindow="6468" windowWidth="25656" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nixie Accurate Clock" sheetId="5" r:id="rId1"/>
@@ -676,76 +676,76 @@
     <t>R13</t>
   </si>
   <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Device:D_Zener</t>
+  </si>
+  <si>
+    <t>:Conn_01x02_Pin_1</t>
+  </si>
+  <si>
+    <t>Transistor_BJT:PZTA42</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMB</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/ds32125.pdf</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/PZTA42T1-D.PDF</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2010_5025Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-csr_csrn.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/1SMB5956B-13/5054209</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/micro-commercial-co/PZTA42-TP/10054674</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CSRN2010FKR500/1742702</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diodes-Incorporated/1SMB5956B-13?qs=uwKJARvjadOTUcHkJGZGig%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/PZTA42?qs=OlC7AqGiEDlNqlN7791aVQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CSRN2010FKR500?qs=FESYatJ8odLqZqv0DvLABQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C9, C10, C12, C14, C16</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D5, D6</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J9, J10</t>
+  </si>
+  <si>
+    <t>J6, J7</t>
+  </si>
+  <si>
+    <t>J11, J12, J13, J14, J15, J16, J17</t>
+  </si>
+  <si>
+    <t>CSRN2010FKR500</t>
+  </si>
+  <si>
+    <t>U4, U5, U7, U8</t>
+  </si>
+  <si>
     <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>Device:D_Zener</t>
-  </si>
-  <si>
-    <t>:Conn_01x02_Pin_1</t>
-  </si>
-  <si>
-    <t>Transistor_BJT:PZTA42</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SMB</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/ds32125.pdf</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pub/Collateral/PZTA42T1-D.PDF</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_2010_5025Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-csr_csrn.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/1SMB5956B-13/5054209</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/micro-commercial-co/PZTA42-TP/10054674</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CSRN2010FKR500/1742702</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Diodes-Incorporated/1SMB5956B-13?qs=uwKJARvjadOTUcHkJGZGig%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/PZTA42?qs=OlC7AqGiEDlNqlN7791aVQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/CSRN2010FKR500?qs=FESYatJ8odLqZqv0DvLABQ%3D%3D</t>
-  </si>
-  <si>
-    <t>C9, C10, C12, C14, C16</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D5, D6</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J9, J10</t>
-  </si>
-  <si>
-    <t>J6, J7</t>
-  </si>
-  <si>
-    <t>J11, J12, J13, J14, J15, J16, J17</t>
-  </si>
-  <si>
-    <t>CSRN2010FKR500</t>
-  </si>
-  <si>
-    <t>U4, U5, U7, U8</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -1472,19 +1472,19 @@
         <v>0.46</v>
       </c>
       <c r="I16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J16" t="s">
+        <v>218</v>
+      </c>
+      <c r="K16" t="s">
         <v>219</v>
       </c>
-      <c r="K16" t="s">
-        <v>220</v>
-      </c>
       <c r="L16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -1589,7 +1589,7 @@
         <v>0.84</v>
       </c>
       <c r="I19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
         <v>168</v>
@@ -1651,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s">
         <v>153</v>
@@ -1742,19 +1742,19 @@
         <v>2.46</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
         <v>221</v>
       </c>
-      <c r="K23" t="s">
-        <v>222</v>
-      </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1888,7 +1888,7 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G27" s="1">
         <v>0.42</v>
@@ -1901,16 +1901,16 @@
         <v>34</v>
       </c>
       <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
         <v>223</v>
       </c>
-      <c r="K27" t="s">
-        <v>224</v>
-      </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
         <v>61</v>
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s">
         <v>67</v>

--- a/hardware/BOM-nixieAccurateClock.xlsx
+++ b/hardware/BOM-nixieAccurateClock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0998F6-6701-41D3-8B29-8C637CF3F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6260A44D-B341-4862-A886-3664D5FA3AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8448" yWindow="6468" windowWidth="25656" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1246,13 +1246,13 @@
       <c r="J10" t="s">
         <v>167</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1285,13 +1285,13 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1324,13 +1324,13 @@
       <c r="J12" t="s">
         <v>145</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1363,13 +1363,13 @@
       <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1402,13 +1402,13 @@
       <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1441,13 +1441,13 @@
       <c r="J15" t="s">
         <v>74</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1477,13 +1477,13 @@
       <c r="J16" t="s">
         <v>218</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1516,13 +1516,13 @@
       <c r="J17" t="s">
         <v>168</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1555,13 +1555,13 @@
       <c r="J18" t="s">
         <v>169</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1594,13 +1594,13 @@
       <c r="J19" t="s">
         <v>168</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1633,13 +1633,13 @@
       <c r="J20" t="s">
         <v>78</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="J21" t="s">
         <v>94</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1711,13 +1711,13 @@
       <c r="J22" t="s">
         <v>170</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1747,13 +1747,13 @@
       <c r="J23" t="s">
         <v>220</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1786,13 +1786,13 @@
       <c r="J24" t="s">
         <v>81</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1825,13 +1825,13 @@
       <c r="J25" t="s">
         <v>81</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1864,13 +1864,13 @@
       <c r="J26" t="s">
         <v>81</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1903,13 +1903,13 @@
       <c r="J27" t="s">
         <v>222</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -1942,13 +1942,13 @@
       <c r="J28" t="s">
         <v>81</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1981,13 +1981,13 @@
       <c r="J29" t="s">
         <v>134</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2020,13 +2020,13 @@
       <c r="J30" t="s">
         <v>81</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2059,13 +2059,13 @@
       <c r="J31" t="s">
         <v>171</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2098,13 +2098,13 @@
       <c r="J32" t="s">
         <v>147</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2137,13 +2137,13 @@
       <c r="J33" t="s">
         <v>141</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2173,13 +2173,13 @@
       <c r="J34" t="s">
         <v>87</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2209,13 +2209,13 @@
       <c r="J35" t="s">
         <v>90</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       <c r="J36" t="s">
         <v>92</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="L36" t="s">
@@ -2281,13 +2281,13 @@
       <c r="J37" t="s">
         <v>172</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2320,13 +2320,13 @@
       <c r="J38" t="s">
         <v>96</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2337,6 +2337,93 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{72E46467-8885-4AEE-BD56-564698EE3F21}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{F8CC9371-89E8-4EA5-BD86-49E91FEE3B61}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{2A39CBD6-FC69-4A40-9219-FC90093B05C7}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{15C74E5D-D10A-476C-9408-2949AC317BC8}"/>
+    <hyperlink ref="K15" r:id="rId5" xr:uid="{884D21BE-DB40-4F24-8389-2AFAA82F73DD}"/>
+    <hyperlink ref="K16" r:id="rId6" xr:uid="{AC9B0F4A-407C-4598-9673-8B27554B8CD0}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{37570029-92A9-41F9-A783-098DAC8E22A6}"/>
+    <hyperlink ref="K18" r:id="rId8" xr:uid="{F5607A37-F516-4BF1-BDAE-8225218BA413}"/>
+    <hyperlink ref="K19" r:id="rId9" xr:uid="{03530753-58D7-4DBB-94B2-775C94B65941}"/>
+    <hyperlink ref="K21" r:id="rId10" xr:uid="{FAF9AB17-81DC-410F-B7D0-5E2ECA9177C0}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{C8CB2BFC-F73C-4960-8108-31DE42E4DDB1}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{A8586A77-0763-4049-824F-C093B8DF6A19}"/>
+    <hyperlink ref="K20" r:id="rId13" xr:uid="{3ED25182-4C50-456B-940B-7A65D8117605}"/>
+    <hyperlink ref="K24" r:id="rId14" xr:uid="{FE5E5E47-8769-4CEB-8D6D-FA56B7E0271B}"/>
+    <hyperlink ref="K25" r:id="rId15" xr:uid="{97C56171-73C7-488E-87C3-93AD501562AD}"/>
+    <hyperlink ref="K26" r:id="rId16" xr:uid="{82D5A7E5-D7AA-473B-B780-7B2705D0249C}"/>
+    <hyperlink ref="K27" r:id="rId17" xr:uid="{B0EB2F4B-3034-4989-92D4-15C45E894419}"/>
+    <hyperlink ref="K28" r:id="rId18" xr:uid="{A554F090-C690-4C22-ADBE-8FAECD08C5FA}"/>
+    <hyperlink ref="K29" r:id="rId19" xr:uid="{F99C1F03-2BC8-4C16-9DC6-351761B60C83}"/>
+    <hyperlink ref="K30" r:id="rId20" xr:uid="{A6406F37-FD70-4619-B867-46A843027419}"/>
+    <hyperlink ref="K31" r:id="rId21" xr:uid="{F3E3A15B-90D0-4A43-A391-1115C5F6F4E5}"/>
+    <hyperlink ref="K32" r:id="rId22" xr:uid="{55ECE583-3160-4A70-B6BD-D7656254A2AD}"/>
+    <hyperlink ref="K33" r:id="rId23" xr:uid="{80A3E6DB-C690-42DB-A268-50E70062D427}"/>
+    <hyperlink ref="K34" r:id="rId24" xr:uid="{E86F245A-4D75-4AE9-B68B-C762F9BA9090}"/>
+    <hyperlink ref="K35" r:id="rId25" xr:uid="{458D2AB6-7137-4C7E-A5B5-B3C03D0E4CEC}"/>
+    <hyperlink ref="K36" r:id="rId26" xr:uid="{B505FECB-E9DF-419E-BF37-5FBB8D8C938D}"/>
+    <hyperlink ref="K37" r:id="rId27" xr:uid="{4255183B-DEAC-42BC-A557-C70482D747AD}"/>
+    <hyperlink ref="K38" r:id="rId28" xr:uid="{C7413B21-2375-4DF0-BD55-6D395DD19658}"/>
+    <hyperlink ref="L10" r:id="rId29" xr:uid="{527EBBE8-C41C-4177-9EB5-6CB4D0606E46}"/>
+    <hyperlink ref="L11" r:id="rId30" xr:uid="{D920AA8B-0195-4DA2-8F49-8F99156F767F}"/>
+    <hyperlink ref="L12" r:id="rId31" xr:uid="{FCF4BD63-886A-4CFB-9E1B-C67ED76A96DF}"/>
+    <hyperlink ref="L13" r:id="rId32" xr:uid="{87D23C20-5CEF-420E-A8C2-D9BA3134AF8F}"/>
+    <hyperlink ref="L15" r:id="rId33" xr:uid="{E37DF5F6-789B-43E9-89CF-6CA91DEE25C2}"/>
+    <hyperlink ref="L16" r:id="rId34" xr:uid="{BDCD7999-88FF-4E98-A51F-F189D8DDDC36}"/>
+    <hyperlink ref="L17" r:id="rId35" xr:uid="{3EDA4B44-DCE7-4DAB-8CD3-B7D467F8D9D8}"/>
+    <hyperlink ref="L18" r:id="rId36" xr:uid="{DC3FF38F-6503-4AD9-B6F4-BD0CCBCE4A5D}"/>
+    <hyperlink ref="L19" r:id="rId37" xr:uid="{23DF5B68-355C-41B5-8876-CC16E0C7C4E0}"/>
+    <hyperlink ref="L20" r:id="rId38" xr:uid="{AD76DE0B-AC61-4BA7-B0FD-9CF46B2D22E9}"/>
+    <hyperlink ref="L21" r:id="rId39" xr:uid="{8B30C99A-26E1-48F0-935C-45AE5661AA52}"/>
+    <hyperlink ref="L22" r:id="rId40" xr:uid="{0D1AF6C4-9806-466A-9AAA-3F10FA1D7B8F}"/>
+    <hyperlink ref="L23" r:id="rId41" xr:uid="{B6D3527A-E369-4139-BE44-F0B7CBEBE08F}"/>
+    <hyperlink ref="L24" r:id="rId42" xr:uid="{112D927B-0EC9-49B7-A24B-5C6C4039BD76}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{0B99C6C8-A1EE-4CDC-93E1-A5633F49D36D}"/>
+    <hyperlink ref="L27" r:id="rId44" xr:uid="{B347B4FC-5315-427C-8B98-4660F08F61EA}"/>
+    <hyperlink ref="L28" r:id="rId45" xr:uid="{0EA8A4B4-01D7-43FC-A0A3-9A127E3178B8}"/>
+    <hyperlink ref="L29" r:id="rId46" xr:uid="{2082BC03-33CB-400E-BBE9-1D7780D82247}"/>
+    <hyperlink ref="L30" r:id="rId47" xr:uid="{6C7E76DE-6C9B-4E35-BBFE-FF3DB510C570}"/>
+    <hyperlink ref="L31" r:id="rId48" xr:uid="{324DD292-ED11-4967-89E1-7C1E25D5AAC7}"/>
+    <hyperlink ref="L32" r:id="rId49" xr:uid="{38132295-F392-4569-81C4-A7A1886654E3}"/>
+    <hyperlink ref="L33" r:id="rId50" xr:uid="{62FB1826-7F34-4BB7-BA9E-A269CE20B6E5}"/>
+    <hyperlink ref="L35" r:id="rId51" xr:uid="{10DE9D03-4BED-4C2E-AF47-57C7ADE55B3D}"/>
+    <hyperlink ref="L37" r:id="rId52" xr:uid="{8707D9FE-0871-4FB5-98D5-614FCA7F1A05}"/>
+    <hyperlink ref="L38" r:id="rId53" xr:uid="{E87D2BFF-0491-4CB7-BB7B-5680D196D962}"/>
+    <hyperlink ref="L34" r:id="rId54" xr:uid="{F3A26DB3-630E-4749-BF0A-D56EEF8974BC}"/>
+    <hyperlink ref="L26" r:id="rId55" xr:uid="{78775874-09A8-4A74-B0D2-158D315058D9}"/>
+    <hyperlink ref="L14" r:id="rId56" xr:uid="{62B93495-625C-41B5-A88C-4D8B860E1C18}"/>
+    <hyperlink ref="K14" r:id="rId57" xr:uid="{4EC2398D-F5AA-4ECC-A11A-77F93803397A}"/>
+    <hyperlink ref="M10" r:id="rId58" xr:uid="{6DB76524-97FA-455C-9BF8-7696DC520315}"/>
+    <hyperlink ref="M11" r:id="rId59" xr:uid="{D2143872-59EF-4EF8-A242-F908D580E97E}"/>
+    <hyperlink ref="M12" r:id="rId60" xr:uid="{14929116-19B9-4A53-8975-0960D5E9166E}"/>
+    <hyperlink ref="M14" r:id="rId61" xr:uid="{4544C836-3C52-42D6-A2B9-B5C25C48794F}"/>
+    <hyperlink ref="M15" r:id="rId62" xr:uid="{CC1529E9-D290-47F6-B467-6B5160039F9F}"/>
+    <hyperlink ref="M16" r:id="rId63" xr:uid="{FD597190-B349-4295-B3C0-6A75CAF33980}"/>
+    <hyperlink ref="M17" r:id="rId64" xr:uid="{0A772523-F789-4044-9107-501456701136}"/>
+    <hyperlink ref="M18" r:id="rId65" xr:uid="{D809BB7C-FE63-4039-A582-1DCE5EF10220}"/>
+    <hyperlink ref="M19" r:id="rId66" xr:uid="{415FEC72-A4F6-466C-8E5F-2E91AF00BD1F}"/>
+    <hyperlink ref="M20" r:id="rId67" xr:uid="{C6FC44A2-9E49-4F45-9806-FB0F36F85F65}"/>
+    <hyperlink ref="M21" r:id="rId68" xr:uid="{E14E6ABC-65E0-4262-A736-2A753E37AAB6}"/>
+    <hyperlink ref="M22" r:id="rId69" xr:uid="{B2C585C9-23C9-47EB-BCA6-7F115C15086E}"/>
+    <hyperlink ref="M23" r:id="rId70" xr:uid="{926AB50E-E07F-45F8-AAC8-553F6084144E}"/>
+    <hyperlink ref="M25" r:id="rId71" xr:uid="{94D0CBC8-5A71-469B-9BBE-6A5496A83212}"/>
+    <hyperlink ref="M26" r:id="rId72" xr:uid="{8E3BDCD3-5747-4384-92E4-3EAD660CF3BB}"/>
+    <hyperlink ref="M27" r:id="rId73" xr:uid="{06B035DC-3031-47EB-A748-215AC8F29B9D}"/>
+    <hyperlink ref="M28" r:id="rId74" xr:uid="{FF254F1D-AEC3-40BC-9F57-C1169542DD5E}"/>
+    <hyperlink ref="M29" r:id="rId75" xr:uid="{D7DBB3C5-0047-4264-9858-52E24277719C}"/>
+    <hyperlink ref="M30" r:id="rId76" xr:uid="{1A79EBA8-B23D-4292-982C-7D3228119539}"/>
+    <hyperlink ref="M31" r:id="rId77" xr:uid="{4926D6FA-A838-4F90-8AE2-8F99502ED2F4}"/>
+    <hyperlink ref="M32" r:id="rId78" xr:uid="{651BB743-0A71-4474-923A-B02AD551A5E4}"/>
+    <hyperlink ref="M33" r:id="rId79" xr:uid="{B8554BA6-A673-4784-8B87-A4714AFCD423}"/>
+    <hyperlink ref="M35" r:id="rId80" xr:uid="{0578B3FB-94CF-4A46-8E68-75112834CA91}"/>
+    <hyperlink ref="M37" r:id="rId81" xr:uid="{1728043B-0D16-4574-A1F1-B9998A043B2F}"/>
+    <hyperlink ref="M38" r:id="rId82" xr:uid="{B05D55F4-7EF8-4C4F-9A37-30F7FE90E598}"/>
+    <hyperlink ref="M34" r:id="rId83" xr:uid="{E957F0FF-C255-4DC4-B6FF-F82366A0BF92}"/>
+    <hyperlink ref="M24" r:id="rId84" xr:uid="{AD536274-0520-4472-8DE5-7EF91A23A6EA}"/>
+    <hyperlink ref="M13" r:id="rId85" xr:uid="{54DB723A-C942-4FF7-BE91-1B08E46466B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
